--- a/Data/gedichtenSteur.xlsx
+++ b/Data/gedichtenSteur.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alielassche/Documents/GitHub/netwerk-huwelijksgedichten/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DFE2B0-2E90-5C4A-B9F9-58AA35D5BFAA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4B6091-006E-2845-847F-A9E68964F414}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16600" xr2:uid="{497C1C06-3A1C-9742-BA45-177D18C5E3DE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="445">
   <si>
     <t>Peter Nooms</t>
   </si>
@@ -1138,6 +1138,234 @@
   </si>
   <si>
     <t>Jan Maan</t>
+  </si>
+  <si>
+    <t>Abraham Welsing</t>
+  </si>
+  <si>
+    <t>Agneta Martens</t>
+  </si>
+  <si>
+    <t>G.M.</t>
+  </si>
+  <si>
+    <t>Otto van Dam</t>
+  </si>
+  <si>
+    <t>Maria Gregory</t>
+  </si>
+  <si>
+    <t>Hendrik Sligtenhorst</t>
+  </si>
+  <si>
+    <t>M. Gregory</t>
+  </si>
+  <si>
+    <t>C. Gregory</t>
+  </si>
+  <si>
+    <t>Js Lafrens</t>
+  </si>
+  <si>
+    <t>J. v. Tatenhove</t>
+  </si>
+  <si>
+    <t>Petrus Leonardus Le Grand</t>
+  </si>
+  <si>
+    <t>Christina van Driest</t>
+  </si>
+  <si>
+    <t>A. van Driest</t>
+  </si>
+  <si>
+    <t>M.D. van Driest</t>
+  </si>
+  <si>
+    <t>H. Le Grand</t>
+  </si>
+  <si>
+    <t>J. van Driest</t>
+  </si>
+  <si>
+    <t>G.L.T.j</t>
+  </si>
+  <si>
+    <t>W. de Leeuw</t>
+  </si>
+  <si>
+    <t>Arnoldus Arendsz</t>
+  </si>
+  <si>
+    <t>Wilhelm de Haan</t>
+  </si>
+  <si>
+    <t>Christinaan van Pesch</t>
+  </si>
+  <si>
+    <t>Elisabeth Smitz</t>
+  </si>
+  <si>
+    <t>Willem Schuyt</t>
+  </si>
+  <si>
+    <t>Margareta Smitz</t>
+  </si>
+  <si>
+    <t>A. van Pesch</t>
+  </si>
+  <si>
+    <t>M. Hessing</t>
+  </si>
+  <si>
+    <t>Justus van Maurik</t>
+  </si>
+  <si>
+    <t>Jacob Lambert Marcelis</t>
+  </si>
+  <si>
+    <t>Suzanna Maria Oortman</t>
+  </si>
+  <si>
+    <t>Willem Gla</t>
+  </si>
+  <si>
+    <t>Beeke</t>
+  </si>
+  <si>
+    <t>Jacob Lutkeman</t>
+  </si>
+  <si>
+    <t>Nicolaas Vlier</t>
+  </si>
+  <si>
+    <t>Kornelis van Yzendoorn</t>
+  </si>
+  <si>
+    <t>Kornelia Velzenaer</t>
+  </si>
+  <si>
+    <t>Sibrecht Buys</t>
+  </si>
+  <si>
+    <t>G.R.</t>
+  </si>
+  <si>
+    <t>Everwyn Drabbw</t>
+  </si>
+  <si>
+    <t>Joanna Cornelia Vriemoet</t>
+  </si>
+  <si>
+    <t>Jacob Brouwer</t>
+  </si>
+  <si>
+    <t>Franeker</t>
+  </si>
+  <si>
+    <t>Henr. Joann. Arntzenius Joan Fil.</t>
+  </si>
+  <si>
+    <t>Johannes Habbema</t>
+  </si>
+  <si>
+    <t>Jacobus Terpstra</t>
+  </si>
+  <si>
+    <t>Adrianus van Well</t>
+  </si>
+  <si>
+    <t>Hobbo Lemke</t>
+  </si>
+  <si>
+    <t>G.K.</t>
+  </si>
+  <si>
+    <t>Gerard Schepers</t>
+  </si>
+  <si>
+    <t>Jacoba Prins</t>
+  </si>
+  <si>
+    <t>Francois Chamois</t>
+  </si>
+  <si>
+    <t>Nikolaes Versteeg</t>
+  </si>
+  <si>
+    <t>Ralph Schomberg</t>
+  </si>
+  <si>
+    <t>Rudolph de Burlett</t>
+  </si>
+  <si>
+    <t>Anna Blarie</t>
+  </si>
+  <si>
+    <t>Jan Bosch</t>
+  </si>
+  <si>
+    <t>R. de Burlett</t>
+  </si>
+  <si>
+    <t>E.M. de Burlett</t>
+  </si>
+  <si>
+    <t>M. de Burlett</t>
+  </si>
+  <si>
+    <t>A.J. de Burlett</t>
+  </si>
+  <si>
+    <t>Anna Elizabeth Harderwyk</t>
+  </si>
+  <si>
+    <t>E. de Burlett jr</t>
+  </si>
+  <si>
+    <t>J. v. D. n.z.</t>
+  </si>
+  <si>
+    <t>J. v. V.</t>
+  </si>
+  <si>
+    <t>A. van Assendelft</t>
+  </si>
+  <si>
+    <t>Jacobus Jaspersen Brasser</t>
+  </si>
+  <si>
+    <t>Gerrit van den Berg</t>
+  </si>
+  <si>
+    <t>Cornelia Sebilla Klaassen</t>
+  </si>
+  <si>
+    <t>Adriaan Kluit</t>
+  </si>
+  <si>
+    <t>R. Wouters</t>
+  </si>
+  <si>
+    <t>Ahazueer van den Berg</t>
+  </si>
+  <si>
+    <t>Gerardus Kuypers</t>
+  </si>
+  <si>
+    <t>Josina Petronella Alberda</t>
+  </si>
+  <si>
+    <t>wed. L. Groenewolt</t>
+  </si>
+  <si>
+    <t>Hermanus van Reverhorst</t>
+  </si>
+  <si>
+    <t>Elisabeth Oostendorp</t>
+  </si>
+  <si>
+    <t>Johan Hendrik Wynstok</t>
   </si>
 </sst>
 </file>
@@ -1499,10 +1727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45495749-DB49-8544-A5F6-1CC30F6E48FD}">
-  <dimension ref="A1:U80"/>
+  <dimension ref="A1:U92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1541,7 +1769,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="str">
-        <f>B1&amp;" &amp; "&amp;C1</f>
+        <f t="shared" ref="D1:D32" si="0">B1&amp;" &amp; "&amp;C1</f>
         <v>Peter Nooms &amp; Beatrix Adriana Ram van Schalkwijck</v>
       </c>
       <c r="E1" t="s">
@@ -1579,7 +1807,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="str">
-        <f>B2&amp;" &amp; "&amp;C2</f>
+        <f t="shared" si="0"/>
         <v>George van Haemstede &amp; Catharina van Hengel</v>
       </c>
       <c r="E2" t="s">
@@ -1600,7 +1828,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="str">
-        <f>B3&amp;" &amp; "&amp;C3</f>
+        <f t="shared" si="0"/>
         <v>Joannes Terwen &amp; Levina de Graad</v>
       </c>
       <c r="E3" t="s">
@@ -1630,7 +1858,7 @@
         <v>16</v>
       </c>
       <c r="D4" t="str">
-        <f>B4&amp;" &amp; "&amp;C4</f>
+        <f t="shared" si="0"/>
         <v>Jean Linnich &amp; Anna van Leuvenich</v>
       </c>
       <c r="E4" t="s">
@@ -1657,7 +1885,7 @@
         <v>21</v>
       </c>
       <c r="D5" t="str">
-        <f>B5&amp;" &amp; "&amp;C5</f>
+        <f t="shared" si="0"/>
         <v>Matthijs van Dulken &amp; Anna Oortman</v>
       </c>
       <c r="E5" t="s">
@@ -1687,7 +1915,7 @@
         <v>29</v>
       </c>
       <c r="D6" t="str">
-        <f>B6&amp;" &amp; "&amp;C6</f>
+        <f t="shared" si="0"/>
         <v>Cornelis van Melle &amp; Margarita Cocquelle</v>
       </c>
       <c r="E6" t="s">
@@ -1711,7 +1939,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="str">
-        <f>B7&amp;" &amp; "&amp;C7</f>
+        <f t="shared" si="0"/>
         <v>Mathias de Schepper &amp; Elizabeth Leidack</v>
       </c>
       <c r="G7" t="s">
@@ -1729,7 +1957,7 @@
         <v>42</v>
       </c>
       <c r="D8" t="str">
-        <f>B8&amp;" &amp; "&amp;C8</f>
+        <f t="shared" si="0"/>
         <v>Francois van Bochoven &amp; Hendrina Christina de Lantman</v>
       </c>
       <c r="E8" t="s">
@@ -1753,7 +1981,7 @@
         <v>37</v>
       </c>
       <c r="D9" t="str">
-        <f>B9&amp;" &amp; "&amp;C9</f>
+        <f t="shared" si="0"/>
         <v>Maurits van Reverhorst &amp; Emmerentia Schrevelius</v>
       </c>
       <c r="E9" t="s">
@@ -1777,7 +2005,7 @@
         <v>34</v>
       </c>
       <c r="D10" t="str">
-        <f>B10&amp;" &amp; "&amp;C10</f>
+        <f t="shared" si="0"/>
         <v>Willem Gerrit Dedel &amp; Suzanna Sofia van de Bocquery</v>
       </c>
       <c r="G10" t="s">
@@ -1795,7 +2023,7 @@
         <v>46</v>
       </c>
       <c r="D11" t="str">
-        <f>B11&amp;" &amp; "&amp;C11</f>
+        <f t="shared" si="0"/>
         <v>Jacob Verbeek &amp; Beatrix van Hees</v>
       </c>
       <c r="E11" t="s">
@@ -1819,7 +2047,7 @@
         <v>49</v>
       </c>
       <c r="D12" t="str">
-        <f>B12&amp;" &amp; "&amp;C12</f>
+        <f t="shared" si="0"/>
         <v>Jacobus Georgius van der Poel &amp; Susanna Sighers</v>
       </c>
       <c r="E12" t="s">
@@ -1846,7 +2074,7 @@
         <v>55</v>
       </c>
       <c r="D13" t="str">
-        <f>B13&amp;" &amp; "&amp;C13</f>
+        <f t="shared" si="0"/>
         <v>Henricus Hollenhagen &amp; Sophia de Lange</v>
       </c>
       <c r="E13" t="s">
@@ -1867,7 +2095,7 @@
         <v>58</v>
       </c>
       <c r="D14" t="str">
-        <f>B14&amp;" &amp; "&amp;C14</f>
+        <f t="shared" si="0"/>
         <v>Adriaen van den Santheuvel &amp; Alida Everwijn van Brandwijk</v>
       </c>
       <c r="G14" t="s">
@@ -1885,7 +2113,7 @@
         <v>61</v>
       </c>
       <c r="D15" t="str">
-        <f>B15&amp;" &amp; "&amp;C15</f>
+        <f t="shared" si="0"/>
         <v>Paulus Kervel &amp; Kornelia Voegen</v>
       </c>
       <c r="G15" t="s">
@@ -1915,7 +2143,7 @@
         <v>68</v>
       </c>
       <c r="D16" t="str">
-        <f>B16&amp;" &amp; "&amp;C16</f>
+        <f t="shared" si="0"/>
         <v>Abraham de Neufville &amp; Anna de Neufville</v>
       </c>
       <c r="G16" t="s">
@@ -1933,7 +2161,7 @@
         <v>68</v>
       </c>
       <c r="D17" t="str">
-        <f>B17&amp;" &amp; "&amp;C17</f>
+        <f t="shared" si="0"/>
         <v>Abraham de Neufville &amp; Anna de Neufville</v>
       </c>
       <c r="G17" t="s">
@@ -1951,7 +2179,7 @@
         <v>82</v>
       </c>
       <c r="D18" t="str">
-        <f>B18&amp;" &amp; "&amp;C18</f>
+        <f t="shared" si="0"/>
         <v>Tymen van Rooyen &amp; Elisabeth Keppel</v>
       </c>
       <c r="E18" t="s">
@@ -1975,7 +2203,7 @@
         <v>79</v>
       </c>
       <c r="D19" t="str">
-        <f>B19&amp;" &amp; "&amp;C19</f>
+        <f t="shared" si="0"/>
         <v>Pieter Messchert Janszoon &amp; Anna van Dulcken</v>
       </c>
       <c r="E19" t="s">
@@ -1999,7 +2227,7 @@
         <v>86</v>
       </c>
       <c r="D20" t="str">
-        <f>B20&amp;" &amp; "&amp;C20</f>
+        <f t="shared" si="0"/>
         <v>Nicolaas van Veen &amp; Anna Asschenberg</v>
       </c>
       <c r="E20" t="s">
@@ -2023,7 +2251,7 @@
         <v>71</v>
       </c>
       <c r="D21" t="str">
-        <f>B21&amp;" &amp; "&amp;C21</f>
+        <f t="shared" si="0"/>
         <v>Marinus Oudenaarde &amp; Magdalena van der Laan</v>
       </c>
       <c r="G21" t="s">
@@ -2047,7 +2275,7 @@
         <v>76</v>
       </c>
       <c r="D22" t="str">
-        <f>B22&amp;" &amp; "&amp;C22</f>
+        <f t="shared" si="0"/>
         <v>Jan Oudaen &amp; Maria Bredenburg</v>
       </c>
       <c r="G22" t="s">
@@ -2065,7 +2293,7 @@
         <v>94</v>
       </c>
       <c r="D23" t="str">
-        <f>B23&amp;" &amp; "&amp;C23</f>
+        <f t="shared" si="0"/>
         <v>Claudius Lormier &amp; Johanna Catharina Steenlack</v>
       </c>
       <c r="E23" t="s">
@@ -2089,7 +2317,7 @@
         <v>90</v>
       </c>
       <c r="D24" t="str">
-        <f>B24&amp;" &amp; "&amp;C24</f>
+        <f t="shared" si="0"/>
         <v>Willem van Laar &amp; Livina van Coppenoll</v>
       </c>
       <c r="E24" t="s">
@@ -2113,7 +2341,7 @@
         <v>109</v>
       </c>
       <c r="D25" t="str">
-        <f>B25&amp;" &amp; "&amp;C25</f>
+        <f t="shared" si="0"/>
         <v>Cornelis van Tongerlo &amp; Johanna Vermeersch</v>
       </c>
       <c r="E25" t="s">
@@ -2146,7 +2374,7 @@
         <v>99</v>
       </c>
       <c r="D26" t="str">
-        <f>B26&amp;" &amp; "&amp;C26</f>
+        <f t="shared" si="0"/>
         <v>Adolph van Asperen &amp; Zuzanna Jonas</v>
       </c>
       <c r="G26" t="s">
@@ -2188,7 +2416,7 @@
         <v>118</v>
       </c>
       <c r="D27" t="str">
-        <f>B27&amp;" &amp; "&amp;C27</f>
+        <f t="shared" si="0"/>
         <v>Albert Koenen &amp; Maria Fransoise Fagel</v>
       </c>
       <c r="E27" t="s">
@@ -2212,7 +2440,7 @@
         <v>115</v>
       </c>
       <c r="D28" t="str">
-        <f>B28&amp;" &amp; "&amp;C28</f>
+        <f t="shared" si="0"/>
         <v>Petrus Vuyst &amp; Barbara Wilhelmina Gerlings</v>
       </c>
       <c r="E28" t="s">
@@ -2236,7 +2464,7 @@
         <v>123</v>
       </c>
       <c r="D29" t="str">
-        <f>B29&amp;" &amp; "&amp;C29</f>
+        <f t="shared" si="0"/>
         <v>Hendrik Haak van Veen &amp; Eva Verver</v>
       </c>
       <c r="G29" t="s">
@@ -2257,7 +2485,7 @@
         <v>127</v>
       </c>
       <c r="D30" t="str">
-        <f>B30&amp;" &amp; "&amp;C30</f>
+        <f t="shared" si="0"/>
         <v>Janum Georgium Ab Auerswald &amp; Clarae Mariae Ab Oudensteyn</v>
       </c>
       <c r="G30" t="s">
@@ -2275,7 +2503,7 @@
         <v>130</v>
       </c>
       <c r="D31" t="str">
-        <f>B31&amp;" &amp; "&amp;C31</f>
+        <f t="shared" si="0"/>
         <v>Abraham Verhamme Albertusz. &amp; Wyna van Lennep</v>
       </c>
       <c r="E31" t="s">
@@ -2323,7 +2551,7 @@
         <v>140</v>
       </c>
       <c r="D32" t="str">
-        <f>B32&amp;" &amp; "&amp;C32</f>
+        <f t="shared" si="0"/>
         <v>Koenraad van Son &amp; Anna Hollebeek</v>
       </c>
       <c r="E32" t="s">
@@ -2347,7 +2575,7 @@
         <v>144</v>
       </c>
       <c r="D33" t="str">
-        <f>B33&amp;" &amp; "&amp;C33</f>
+        <f t="shared" ref="D33:D64" si="1">B33&amp;" &amp; "&amp;C33</f>
         <v>Hendrik Hoofd &amp; Margareta Willink</v>
       </c>
       <c r="E33" t="s">
@@ -2377,7 +2605,7 @@
         <v>148</v>
       </c>
       <c r="D34" t="str">
-        <f>B34&amp;" &amp; "&amp;C34</f>
+        <f t="shared" si="1"/>
         <v>Sibertus van Romondt &amp; Margareta Christina van Muyden</v>
       </c>
       <c r="E34" t="s">
@@ -2404,7 +2632,7 @@
         <v>152</v>
       </c>
       <c r="D35" t="str">
-        <f>B35&amp;" &amp; "&amp;C35</f>
+        <f t="shared" si="1"/>
         <v>Frederik Ottens &amp; Debora Hogeboom</v>
       </c>
       <c r="G35" t="s">
@@ -2422,7 +2650,7 @@
         <v>154</v>
       </c>
       <c r="D36" t="str">
-        <f>B36&amp;" &amp; "&amp;C36</f>
+        <f t="shared" si="1"/>
         <v>Jacob van Veen &amp; Geertruij Buys</v>
       </c>
       <c r="G36" t="s">
@@ -2446,7 +2674,7 @@
         <v>159</v>
       </c>
       <c r="D37" t="str">
-        <f>B37&amp;" &amp; "&amp;C37</f>
+        <f t="shared" si="1"/>
         <v>Adam der Kinderen &amp; Maria Huygens</v>
       </c>
       <c r="G37" t="s">
@@ -2479,7 +2707,7 @@
         <v>177</v>
       </c>
       <c r="D38" t="str">
-        <f>B38&amp;" &amp; "&amp;C38</f>
+        <f t="shared" si="1"/>
         <v>Jan de Heeger &amp; Suzanna Swigtenheuvel</v>
       </c>
       <c r="E38" t="s">
@@ -2503,7 +2731,7 @@
         <v>167</v>
       </c>
       <c r="D39" t="str">
-        <f>B39&amp;" &amp; "&amp;C39</f>
+        <f t="shared" si="1"/>
         <v>Marten Schagen &amp; Diewertje Blauwduif</v>
       </c>
       <c r="E39" t="s">
@@ -2545,7 +2773,7 @@
         <v>180</v>
       </c>
       <c r="D40" t="str">
-        <f>B40&amp;" &amp; "&amp;C40</f>
+        <f t="shared" si="1"/>
         <v>Jan Paeuw &amp; Alida Kruyt</v>
       </c>
       <c r="E40" t="s">
@@ -2584,7 +2812,7 @@
         <v>188</v>
       </c>
       <c r="D41" t="str">
-        <f>B41&amp;" &amp; "&amp;C41</f>
+        <f t="shared" si="1"/>
         <v>Anthony Repelaer &amp; Hester Coymans</v>
       </c>
       <c r="G41" t="s">
@@ -2602,7 +2830,7 @@
         <v>191</v>
       </c>
       <c r="D42" t="str">
-        <f>B42&amp;" &amp; "&amp;C42</f>
+        <f t="shared" si="1"/>
         <v>Emanuel Der Kinderen &amp; Maria Michell</v>
       </c>
       <c r="E42" t="s">
@@ -2668,7 +2896,7 @@
         <v>205</v>
       </c>
       <c r="D43" t="str">
-        <f>B43&amp;" &amp; "&amp;C43</f>
+        <f t="shared" si="1"/>
         <v>Matthijs Beuning &amp; Christina Luyken</v>
       </c>
       <c r="G43" t="s">
@@ -2686,7 +2914,7 @@
         <v>214</v>
       </c>
       <c r="D44" t="str">
-        <f>B44&amp;" &amp; "&amp;C44</f>
+        <f t="shared" si="1"/>
         <v>Zacharias van Dulmen &amp; Cornelia Wibbert</v>
       </c>
       <c r="E44" t="s">
@@ -2713,7 +2941,7 @@
         <v>208</v>
       </c>
       <c r="D45" t="str">
-        <f>B45&amp;" &amp; "&amp;C45</f>
+        <f t="shared" si="1"/>
         <v>Bastiaan Oudemans &amp; Helena Outhof</v>
       </c>
     </row>
@@ -2728,7 +2956,7 @@
         <v>210</v>
       </c>
       <c r="D46" t="str">
-        <f>B46&amp;" &amp; "&amp;C46</f>
+        <f t="shared" si="1"/>
         <v>Willem Hendrik Schlosser &amp; Maria Petronella Beeldsnijder</v>
       </c>
       <c r="G46" t="s">
@@ -2752,7 +2980,7 @@
         <v>218</v>
       </c>
       <c r="D47" t="str">
-        <f>B47&amp;" &amp; "&amp;C47</f>
+        <f t="shared" si="1"/>
         <v>Hendrik Coesvelt &amp; Aletta van Rincom</v>
       </c>
       <c r="E47" t="s">
@@ -2773,7 +3001,7 @@
         <v>221</v>
       </c>
       <c r="D48" t="str">
-        <f>B48&amp;" &amp; "&amp;C48</f>
+        <f t="shared" si="1"/>
         <v>Nanningh van Foreest &amp; Jacobae De Vries</v>
       </c>
       <c r="E48" t="s">
@@ -2815,7 +3043,7 @@
         <v>232</v>
       </c>
       <c r="D49" t="str">
-        <f>B49&amp;" &amp; "&amp;C49</f>
+        <f t="shared" si="1"/>
         <v>Jan Raket &amp; Johanna Pothoff</v>
       </c>
       <c r="E49" t="s">
@@ -2839,7 +3067,7 @@
         <v>236</v>
       </c>
       <c r="D50" t="str">
-        <f>B50&amp;" &amp; "&amp;C50</f>
+        <f t="shared" si="1"/>
         <v>Niclaas Geelvinck &amp; Johanna Jacoba Graafland</v>
       </c>
       <c r="G50" t="s">
@@ -2863,7 +3091,7 @@
         <v>240</v>
       </c>
       <c r="D51" t="str">
-        <f>B51&amp;" &amp; "&amp;C51</f>
+        <f t="shared" si="1"/>
         <v>Kornelis Hoorens &amp; Maria van Hoppenbroek</v>
       </c>
       <c r="E51" t="s">
@@ -2896,7 +3124,7 @@
         <v>245</v>
       </c>
       <c r="D52" t="str">
-        <f>B52&amp;" &amp; "&amp;C52</f>
+        <f t="shared" si="1"/>
         <v>Cornelis Bouquet &amp; Petronella Uytwerf</v>
       </c>
       <c r="G52" t="s">
@@ -2914,7 +3142,7 @@
         <v>247</v>
       </c>
       <c r="D53" t="str">
-        <f>B53&amp;" &amp; "&amp;C53</f>
+        <f t="shared" si="1"/>
         <v>Joan Muysken &amp; Catharina Regina van Romont</v>
       </c>
       <c r="G53" t="s">
@@ -2932,7 +3160,7 @@
         <v>249</v>
       </c>
       <c r="D54" t="str">
-        <f>B54&amp;" &amp; "&amp;C54</f>
+        <f t="shared" si="1"/>
         <v>Isaak Ostens &amp; Maria Scheltes</v>
       </c>
       <c r="E54" t="s">
@@ -2959,7 +3187,7 @@
         <v>253</v>
       </c>
       <c r="D55" t="str">
-        <f>B55&amp;" &amp; "&amp;C55</f>
+        <f t="shared" si="1"/>
         <v>Willem Vlaardingerwoud &amp; Sofia Vlaardingerwoud</v>
       </c>
       <c r="G55" t="s">
@@ -2977,7 +3205,7 @@
         <v>255</v>
       </c>
       <c r="D56" t="str">
-        <f>B56&amp;" &amp; "&amp;C56</f>
+        <f t="shared" si="1"/>
         <v>Bastiaan Oudemans &amp; Geertruit Geselschap</v>
       </c>
       <c r="G56" t="s">
@@ -2995,7 +3223,7 @@
         <v>263</v>
       </c>
       <c r="D57" t="str">
-        <f>B57&amp;" &amp; "&amp;C57</f>
+        <f t="shared" si="1"/>
         <v>Cornelis Johannes Rycken &amp; Catharina Lach</v>
       </c>
       <c r="E57" t="s">
@@ -3025,7 +3253,7 @@
         <v>258</v>
       </c>
       <c r="D58" t="str">
-        <f>B58&amp;" &amp; "&amp;C58</f>
+        <f t="shared" si="1"/>
         <v>Hobbe van Burmania &amp; Helena Amerentiana Lucia van Unia</v>
       </c>
       <c r="E58" t="s">
@@ -3049,7 +3277,7 @@
         <v>269</v>
       </c>
       <c r="D59" t="str">
-        <f>B59&amp;" &amp; "&amp;C59</f>
+        <f t="shared" si="1"/>
         <v>Pieter Twent &amp; Elisabeth Adriana van der Lely</v>
       </c>
       <c r="G59" t="s">
@@ -3073,7 +3301,7 @@
         <v>280</v>
       </c>
       <c r="D60" t="str">
-        <f>B60&amp;" &amp; "&amp;C60</f>
+        <f t="shared" si="1"/>
         <v>Feyo van Hiemstra &amp; Tita Helena van Burmania</v>
       </c>
       <c r="E60" t="s">
@@ -3097,7 +3325,7 @@
         <v>283</v>
       </c>
       <c r="D61" t="str">
-        <f>B61&amp;" &amp; "&amp;C61</f>
+        <f t="shared" si="1"/>
         <v>Willem Carel Henrik Friso &amp; Anna, kroon-prinsesse van Groot Brittanjen</v>
       </c>
       <c r="E61" t="s">
@@ -3121,7 +3349,7 @@
         <v>274</v>
       </c>
       <c r="D62" t="str">
-        <f>B62&amp;" &amp; "&amp;C62</f>
+        <f t="shared" si="1"/>
         <v>Jacobus Hoorens &amp; Margareta Hooft</v>
       </c>
       <c r="G62" t="s">
@@ -3151,7 +3379,7 @@
         <v>286</v>
       </c>
       <c r="D63" t="str">
-        <f>B63&amp;" &amp; "&amp;C63</f>
+        <f t="shared" si="1"/>
         <v>Paulus Bogaert &amp; Maria Wilhelmina Boey</v>
       </c>
       <c r="G63" t="s">
@@ -3169,7 +3397,7 @@
         <v>289</v>
       </c>
       <c r="D64" t="str">
-        <f>B64&amp;" &amp; "&amp;C64</f>
+        <f t="shared" si="1"/>
         <v>Lambertus Bosboom &amp; Maria Boonen</v>
       </c>
       <c r="G64" t="s">
@@ -3187,7 +3415,7 @@
         <v>292</v>
       </c>
       <c r="D65" t="str">
-        <f>B65&amp;" &amp; "&amp;C65</f>
+        <f t="shared" ref="D65:D96" si="2">B65&amp;" &amp; "&amp;C65</f>
         <v>Abraham De Marre &amp; Maria Smits</v>
       </c>
       <c r="G65" t="s">
@@ -3214,7 +3442,7 @@
         <v>297</v>
       </c>
       <c r="D66" t="str">
-        <f>B66&amp;" &amp; "&amp;C66</f>
+        <f t="shared" si="2"/>
         <v>Lambert van Neck &amp; Theodora Maria Groenhout</v>
       </c>
       <c r="G66" t="s">
@@ -3241,7 +3469,7 @@
         <v>302</v>
       </c>
       <c r="D67" t="str">
-        <f>B67&amp;" &amp; "&amp;C67</f>
+        <f t="shared" si="2"/>
         <v>Jan van der Vliet &amp; Jacomina Hooft</v>
       </c>
       <c r="E67" t="s">
@@ -3289,7 +3517,7 @@
         <v>302</v>
       </c>
       <c r="D68" t="str">
-        <f>B68&amp;" &amp; "&amp;C68</f>
+        <f t="shared" si="2"/>
         <v>Jan van der Vliet &amp; Jacomina Hooft</v>
       </c>
       <c r="G68" t="s">
@@ -3307,7 +3535,7 @@
         <v>314</v>
       </c>
       <c r="D69" t="str">
-        <f>B69&amp;" &amp; "&amp;C69</f>
+        <f t="shared" si="2"/>
         <v>Gysbert Antwerpen Verbrugge &amp; Maria Hooft</v>
       </c>
       <c r="E69" t="s">
@@ -3358,7 +3586,7 @@
         <v>325</v>
       </c>
       <c r="D70" t="str">
-        <f>B70&amp;" &amp; "&amp;C70</f>
+        <f t="shared" si="2"/>
         <v>Simon Tetterode &amp; Johanna Margareta de Burlett</v>
       </c>
       <c r="E70" t="s">
@@ -3391,7 +3619,7 @@
         <v>335</v>
       </c>
       <c r="D71" t="str">
-        <f>B71&amp;" &amp; "&amp;C71</f>
+        <f t="shared" si="2"/>
         <v>Harmanus Veeckens &amp; Debora Elizabeth Kramp</v>
       </c>
       <c r="E71" t="s">
@@ -3424,7 +3652,7 @@
         <v>333</v>
       </c>
       <c r="D72" t="str">
-        <f>B72&amp;" &amp; "&amp;C72</f>
+        <f t="shared" si="2"/>
         <v>Johannes Broekhals &amp; Maria Jakoba Versluis</v>
       </c>
     </row>
@@ -3439,7 +3667,7 @@
         <v>340</v>
       </c>
       <c r="D73" t="str">
-        <f>B73&amp;" &amp; "&amp;C73</f>
+        <f t="shared" si="2"/>
         <v>Joannes Petrus Driessen &amp; Anna Christina Alberthoma</v>
       </c>
       <c r="E73" t="s">
@@ -3466,7 +3694,7 @@
         <v>345</v>
       </c>
       <c r="D74" t="str">
-        <f>B74&amp;" &amp; "&amp;C74</f>
+        <f t="shared" si="2"/>
         <v>Michael Johan van Kampen &amp; Agatha Elikink</v>
       </c>
       <c r="G74" t="s">
@@ -3487,7 +3715,7 @@
         <v>349</v>
       </c>
       <c r="D75" t="str">
-        <f>B75&amp;" &amp; "&amp;C75</f>
+        <f t="shared" si="2"/>
         <v>Jan van Cleeff &amp; Adriana Charlotta van Bronkhorst</v>
       </c>
     </row>
@@ -3502,7 +3730,7 @@
         <v>351</v>
       </c>
       <c r="D76" t="str">
-        <f>B76&amp;" &amp; "&amp;C76</f>
+        <f t="shared" si="2"/>
         <v>Arnoldo Cloetingh &amp; Gertrudis van Maerden</v>
       </c>
       <c r="G76" t="s">
@@ -3520,7 +3748,7 @@
         <v>354</v>
       </c>
       <c r="D77" t="str">
-        <f>B77&amp;" &amp; "&amp;C77</f>
+        <f t="shared" si="2"/>
         <v>Jan de Heger &amp; Johanna Stevens</v>
       </c>
       <c r="E77" t="s">
@@ -3544,7 +3772,7 @@
         <v>357</v>
       </c>
       <c r="D78" t="str">
-        <f>B78&amp;" &amp; "&amp;C78</f>
+        <f t="shared" si="2"/>
         <v>Kornelis van den Bosch &amp; Anna Oudaen</v>
       </c>
       <c r="G78" t="s">
@@ -3568,7 +3796,7 @@
         <v>362</v>
       </c>
       <c r="D79" t="str">
-        <f>B79&amp;" &amp; "&amp;C79</f>
+        <f t="shared" si="2"/>
         <v>Dirk Wenink &amp; Sara Jacoba Lussing</v>
       </c>
       <c r="G79" t="s">
@@ -3592,11 +3820,380 @@
         <v>367</v>
       </c>
       <c r="D80" t="str">
-        <f>B80&amp;" &amp; "&amp;C80</f>
+        <f t="shared" si="2"/>
         <v>Wilhelm Griffioen &amp; Petronella Robijn</v>
       </c>
       <c r="G80" t="s">
         <v>368</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>1751</v>
+      </c>
+      <c r="B81" t="s">
+        <v>369</v>
+      </c>
+      <c r="C81" t="s">
+        <v>370</v>
+      </c>
+      <c r="D81" t="str">
+        <f t="shared" si="2"/>
+        <v>Abraham Welsing &amp; Agneta Martens</v>
+      </c>
+      <c r="G81" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>1752</v>
+      </c>
+      <c r="B82" t="s">
+        <v>372</v>
+      </c>
+      <c r="C82" t="s">
+        <v>373</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="shared" si="2"/>
+        <v>Otto van Dam &amp; Maria Gregory</v>
+      </c>
+      <c r="E82" t="s">
+        <v>374</v>
+      </c>
+      <c r="F82" t="s">
+        <v>3</v>
+      </c>
+      <c r="G82" t="s">
+        <v>375</v>
+      </c>
+      <c r="H82" t="s">
+        <v>376</v>
+      </c>
+      <c r="I82" t="s">
+        <v>377</v>
+      </c>
+      <c r="J82" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>1752</v>
+      </c>
+      <c r="B83" t="s">
+        <v>379</v>
+      </c>
+      <c r="C83" t="s">
+        <v>380</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" si="2"/>
+        <v>Petrus Leonardus Le Grand &amp; Christina van Driest</v>
+      </c>
+      <c r="E83" t="s">
+        <v>233</v>
+      </c>
+      <c r="F83" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" t="s">
+        <v>381</v>
+      </c>
+      <c r="H83" t="s">
+        <v>382</v>
+      </c>
+      <c r="I83" t="s">
+        <v>383</v>
+      </c>
+      <c r="J83" t="s">
+        <v>384</v>
+      </c>
+      <c r="K83" t="s">
+        <v>385</v>
+      </c>
+      <c r="L83" t="s">
+        <v>386</v>
+      </c>
+      <c r="M83" t="s">
+        <v>387</v>
+      </c>
+      <c r="N83" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>1753</v>
+      </c>
+      <c r="B84" t="s">
+        <v>389</v>
+      </c>
+      <c r="C84" t="s">
+        <v>390</v>
+      </c>
+      <c r="D84" t="str">
+        <f t="shared" si="2"/>
+        <v>Christinaan van Pesch &amp; Elisabeth Smitz</v>
+      </c>
+      <c r="G84" t="s">
+        <v>166</v>
+      </c>
+      <c r="H84" t="s">
+        <v>391</v>
+      </c>
+      <c r="I84" t="s">
+        <v>392</v>
+      </c>
+      <c r="J84" t="s">
+        <v>393</v>
+      </c>
+      <c r="K84" t="s">
+        <v>394</v>
+      </c>
+      <c r="L84" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>1753</v>
+      </c>
+      <c r="B85" t="s">
+        <v>396</v>
+      </c>
+      <c r="C85" t="s">
+        <v>397</v>
+      </c>
+      <c r="D85" t="str">
+        <f t="shared" si="2"/>
+        <v>Jacob Lambert Marcelis &amp; Suzanna Maria Oortman</v>
+      </c>
+      <c r="E85" t="s">
+        <v>398</v>
+      </c>
+      <c r="F85" t="s">
+        <v>3</v>
+      </c>
+      <c r="G85" t="s">
+        <v>306</v>
+      </c>
+      <c r="H85" t="s">
+        <v>307</v>
+      </c>
+      <c r="I85" t="s">
+        <v>399</v>
+      </c>
+      <c r="J85" t="s">
+        <v>400</v>
+      </c>
+      <c r="K85" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>1753</v>
+      </c>
+      <c r="B86" t="s">
+        <v>402</v>
+      </c>
+      <c r="C86" t="s">
+        <v>403</v>
+      </c>
+      <c r="D86" t="str">
+        <f t="shared" si="2"/>
+        <v>Kornelis van Yzendoorn &amp; Kornelia Velzenaer</v>
+      </c>
+      <c r="G86" t="s">
+        <v>404</v>
+      </c>
+      <c r="H86" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>1756</v>
+      </c>
+      <c r="B87" t="s">
+        <v>406</v>
+      </c>
+      <c r="C87" t="s">
+        <v>407</v>
+      </c>
+      <c r="D87" t="str">
+        <f t="shared" si="2"/>
+        <v>Everwyn Drabbw &amp; Joanna Cornelia Vriemoet</v>
+      </c>
+      <c r="E87" t="s">
+        <v>408</v>
+      </c>
+      <c r="F87" t="s">
+        <v>409</v>
+      </c>
+      <c r="G87" t="s">
+        <v>410</v>
+      </c>
+      <c r="H87" t="s">
+        <v>411</v>
+      </c>
+      <c r="I87" t="s">
+        <v>412</v>
+      </c>
+      <c r="J87" t="s">
+        <v>413</v>
+      </c>
+      <c r="K87" t="s">
+        <v>414</v>
+      </c>
+      <c r="L87" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>1756</v>
+      </c>
+      <c r="B88" t="s">
+        <v>416</v>
+      </c>
+      <c r="C88" t="s">
+        <v>417</v>
+      </c>
+      <c r="D88" t="str">
+        <f t="shared" si="2"/>
+        <v>Gerard Schepers &amp; Jacoba Prins</v>
+      </c>
+      <c r="G88" t="s">
+        <v>121</v>
+      </c>
+      <c r="H88" t="s">
+        <v>418</v>
+      </c>
+      <c r="I88" t="s">
+        <v>419</v>
+      </c>
+      <c r="J88" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>1757</v>
+      </c>
+      <c r="B89" t="s">
+        <v>421</v>
+      </c>
+      <c r="C89" t="s">
+        <v>422</v>
+      </c>
+      <c r="D89" t="str">
+        <f t="shared" si="2"/>
+        <v>Rudolph de Burlett &amp; Anna Blarie</v>
+      </c>
+      <c r="E89" t="s">
+        <v>423</v>
+      </c>
+      <c r="F89" t="s">
+        <v>327</v>
+      </c>
+      <c r="G89" t="s">
+        <v>424</v>
+      </c>
+      <c r="H89" t="s">
+        <v>425</v>
+      </c>
+      <c r="I89" t="s">
+        <v>426</v>
+      </c>
+      <c r="J89" t="s">
+        <v>427</v>
+      </c>
+      <c r="K89" t="s">
+        <v>428</v>
+      </c>
+      <c r="L89" t="s">
+        <v>429</v>
+      </c>
+      <c r="M89" t="s">
+        <v>330</v>
+      </c>
+      <c r="N89" t="s">
+        <v>430</v>
+      </c>
+      <c r="O89" t="s">
+        <v>431</v>
+      </c>
+      <c r="P89" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>1757</v>
+      </c>
+      <c r="B90" t="s">
+        <v>434</v>
+      </c>
+      <c r="C90" t="s">
+        <v>435</v>
+      </c>
+      <c r="D90" t="str">
+        <f t="shared" si="2"/>
+        <v>Gerrit van den Berg &amp; Cornelia Sebilla Klaassen</v>
+      </c>
+      <c r="G90" t="s">
+        <v>436</v>
+      </c>
+      <c r="H90" t="s">
+        <v>437</v>
+      </c>
+      <c r="I90" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>1759</v>
+      </c>
+      <c r="B91" t="s">
+        <v>439</v>
+      </c>
+      <c r="C91" t="s">
+        <v>440</v>
+      </c>
+      <c r="D91" t="str">
+        <f t="shared" si="2"/>
+        <v>Gerardus Kuypers &amp; Josina Petronella Alberda</v>
+      </c>
+      <c r="E91" t="s">
+        <v>441</v>
+      </c>
+      <c r="F91" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>1760</v>
+      </c>
+      <c r="B92" t="s">
+        <v>442</v>
+      </c>
+      <c r="C92" t="s">
+        <v>443</v>
+      </c>
+      <c r="D92" t="str">
+        <f t="shared" si="2"/>
+        <v>Hermanus van Reverhorst &amp; Elisabeth Oostendorp</v>
+      </c>
+      <c r="G92" t="s">
+        <v>444</v>
       </c>
     </row>
   </sheetData>
